--- a/Sample application/DSPIC_Sample.xlsx
+++ b/Sample application/DSPIC_Sample.xlsx
@@ -1,31 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\I19150\Desktop\New folder\AE-LAN9252-dsPIC-UART-Example_new\Sample application\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HC\IN_PROGRESS_PROJECTS\AE-LAN9252-dsPIC-UART-Example\Sample application\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74047F69-EF73-4430-B1CD-4F85331E365F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1CA75B1-FA61-4255-B4F3-732E0FB74548}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Profile" sheetId="11" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Profile!$B$10:$P$50</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Profile!$B$1:$P$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Profile!$B$10:$P$53</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Profile!$B$1:$P$54</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="66">
   <si>
     <t>Index</t>
   </si>
@@ -99,6 +99,24 @@
     <t>//0x6nnx</t>
   </si>
   <si>
+    <t>//0x14nn</t>
+  </si>
+  <si>
+    <t>RxPDO Parameter (0x1400 - 0x15FF)</t>
+  </si>
+  <si>
+    <t>//0x16nn</t>
+  </si>
+  <si>
+    <t>//0x18nn</t>
+  </si>
+  <si>
+    <t>TxPDO Paramter (0x1800 - 0x19FF)</t>
+  </si>
+  <si>
+    <t>//0x1Ann</t>
+  </si>
+  <si>
     <t>Input Data of the Module (0x6000 - 0x6FFF)</t>
   </si>
   <si>
@@ -118,6 +136,12 @@
   </si>
   <si>
     <t>Enums (0x0800 - 0xFFF)</t>
+  </si>
+  <si>
+    <t>//0x1C12</t>
+  </si>
+  <si>
+    <t>//0x1C13</t>
   </si>
   <si>
     <r>
@@ -148,6 +172,110 @@
     </r>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">RxPDO Mapping (0x1600 - 0x17FF) | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NOTE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: if no RxPDO mapping object is defined the will  be created automatically </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">TxPDO Mapping (0x1A00 - 0x1BFF) | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NOTE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: if no TxPDO mapping object is defined the will  be created automatically </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SyncManager 2 Assignment | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NOTE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: if this object is not defined it will  be created automatically </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SyncManager 3 Assignment | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NOTE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: if this object is not defined it will  be created automatically </t>
+    </r>
+  </si>
+  <si>
     <t>0</t>
   </si>
   <si>
@@ -172,95 +300,46 @@
     <t>UDINT</t>
   </si>
   <si>
+    <t>0x7010</t>
+  </si>
+  <si>
     <t>0xffffffff</t>
   </si>
   <si>
+    <t>0x6000</t>
+  </si>
+  <si>
     <t>RECORD</t>
   </si>
   <si>
-    <t>BOOL</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>uart_read_buffer</t>
-  </si>
-  <si>
-    <t>uart_write_buffer</t>
-  </si>
-  <si>
-    <t>0x6000</t>
-  </si>
-  <si>
-    <t>0x7000</t>
-  </si>
-  <si>
-    <t>uart_input</t>
-  </si>
-  <si>
-    <t>uart_output</t>
-  </si>
-  <si>
-    <t>0x6021</t>
-  </si>
-  <si>
-    <t>uart_status</t>
-  </si>
-  <si>
-    <t>tx_ready</t>
-  </si>
-  <si>
-    <t>rx_ready</t>
-  </si>
-  <si>
-    <t>pad_8</t>
-  </si>
-  <si>
-    <t>UINT8</t>
-  </si>
-  <si>
-    <t>0xff</t>
-  </si>
-  <si>
-    <t>0x8000</t>
-  </si>
-  <si>
-    <t>configure_uart</t>
-  </si>
-  <si>
-    <t>buadrate</t>
-  </si>
-  <si>
-    <t>9600</t>
-  </si>
-  <si>
-    <t>parity and data selection bits</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>enable uart</t>
-  </si>
-  <si>
-    <t>stop selection bit</t>
-  </si>
-  <si>
-    <t>pad_5</t>
-  </si>
-  <si>
-    <t>pad_7</t>
-  </si>
-  <si>
-    <t>3 = 9-bit data, no parity
-2 = 8-bit data, odd parity
-1 = 8-bit data, even parity
-0 = 8-bit data, no parity</t>
-  </si>
-  <si>
-    <t>1 = 2 Stop bits
-0 = 1 Stop bit</t>
+    <t>Inputs</t>
+  </si>
+  <si>
+    <t>Outputs</t>
+  </si>
+  <si>
+    <t>0x01</t>
+  </si>
+  <si>
+    <t>If value is 0, it will clear the OutputCounter, else the OutputCounter value will be increamented as per InputTrigger value</t>
+  </si>
+  <si>
+    <t>OutputCounter value is determined based on InputTrigger value</t>
+  </si>
+  <si>
+    <t>Counter</t>
+  </si>
+  <si>
+    <t>Trigger</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>0xffff</t>
+  </si>
+  <si>
+    <t>TwiceValue</t>
   </si>
 </sst>
 </file>
@@ -335,7 +414,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -374,10 +453,6 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -399,9 +474,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -439,9 +514,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -474,26 +549,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -526,26 +584,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -719,33 +760,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T51"/>
+  <dimension ref="B1:T53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="10" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.7265625" defaultRowHeight="14.5" outlineLevelRow="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.85546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" style="3" customWidth="1"/>
-    <col min="3" max="5" width="14.7109375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="40.7109375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.7109375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="8.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="7.7109375" style="3" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" style="3" customWidth="1"/>
-    <col min="13" max="13" width="7.7109375" style="3" customWidth="1"/>
-    <col min="14" max="14" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="79.5703125" style="3" customWidth="1"/>
-    <col min="17" max="16384" width="10.7109375" style="3"/>
+    <col min="1" max="1" width="3.81640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="20.26953125" style="3" customWidth="1"/>
+    <col min="3" max="5" width="14.7265625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="40.7265625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="11.7265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.7265625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="8.7265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.26953125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="7.7265625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="11.7265625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="7.7265625" style="3" customWidth="1"/>
+    <col min="14" max="14" width="11.7265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="35.7265625" style="3" customWidth="1"/>
+    <col min="17" max="16384" width="10.7265625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>18</v>
       </c>
@@ -756,133 +797,133 @@
         <v>19</v>
       </c>
       <c r="E1"/>
-      <c r="F1" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
+      <c r="F1" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
       <c r="Q1" s="13"/>
       <c r="R1" s="13"/>
       <c r="S1" s="13"/>
       <c r="T1" s="13"/>
     </row>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="E2"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
       <c r="Q2" s="13"/>
       <c r="R2" s="13"/>
       <c r="S2" s="13"/>
       <c r="T2" s="13"/>
     </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B3" s="1"/>
       <c r="C3" s="4"/>
       <c r="D3"/>
       <c r="E3"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
       <c r="Q3" s="13"/>
       <c r="R3" s="13"/>
       <c r="S3" s="13"/>
       <c r="T3" s="13"/>
     </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B4" s="1"/>
       <c r="C4" s="4"/>
       <c r="D4"/>
       <c r="E4"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
       <c r="Q4" s="13"/>
       <c r="R4" s="13"/>
       <c r="S4" s="13"/>
       <c r="T4" s="13"/>
     </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B5"/>
       <c r="C5"/>
       <c r="D5"/>
       <c r="E5"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
       <c r="Q5" s="13"/>
       <c r="R5" s="13"/>
       <c r="S5" s="13"/>
       <c r="T5" s="13"/>
     </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B6"/>
       <c r="C6"/>
       <c r="D6"/>
       <c r="E6"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
       <c r="Q6" s="13"/>
       <c r="R6" s="13"/>
       <c r="S6" s="13"/>
       <c r="T6" s="13"/>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B7"/>
       <c r="C7"/>
       <c r="D7"/>
@@ -903,7 +944,7 @@
       <c r="S7" s="13"/>
       <c r="T7" s="13"/>
     </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B8" s="6" t="s">
         <v>21</v>
       </c>
@@ -922,7 +963,7 @@
       <c r="O8"/>
       <c r="P8"/>
     </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B9"/>
       <c r="C9"/>
       <c r="D9"/>
@@ -939,7 +980,7 @@
       <c r="O9"/>
       <c r="P9"/>
     </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B10" s="7" t="s">
         <v>0</v>
       </c>
@@ -977,16 +1018,16 @@
         <v>5</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="2:20" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:20" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B11" s="12" t="s">
         <v>22</v>
       </c>
@@ -1007,7 +1048,7 @@
       <c r="O11" s="12"/>
       <c r="P11" s="12"/>
     </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B12"/>
       <c r="C12"/>
       <c r="D12" s="8"/>
@@ -1024,7 +1065,7 @@
       <c r="O12"/>
       <c r="P12" s="10"/>
     </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:20" x14ac:dyDescent="0.35">
       <c r="D13" s="9"/>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
@@ -1033,12 +1074,12 @@
       <c r="I13" s="11"/>
       <c r="P13" s="11"/>
     </row>
-    <row r="14" spans="2:20" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:20" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B14" s="12" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
@@ -1054,7 +1095,7 @@
       <c r="O14" s="12"/>
       <c r="P14" s="12"/>
     </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:20" x14ac:dyDescent="0.35">
       <c r="D15" s="9"/>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
@@ -1063,7 +1104,7 @@
       <c r="I15" s="11"/>
       <c r="P15" s="11"/>
     </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:20" x14ac:dyDescent="0.35">
       <c r="D16" s="9"/>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
@@ -1072,16 +1113,28 @@
       <c r="I16" s="11"/>
       <c r="P16" s="11"/>
     </row>
-    <row r="17" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="D17" s="9"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="P17" s="11"/>
-    </row>
-    <row r="18" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:16" s="11" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+    </row>
+    <row r="18" spans="2:16" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="D18" s="9"/>
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
@@ -1090,167 +1143,154 @@
       <c r="I18" s="11"/>
       <c r="P18" s="11"/>
     </row>
-    <row r="19" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="12"/>
-      <c r="P19" s="12"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B20" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20" s="3" t="s">
+    <row r="19" spans="2:16" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="D19" s="9"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="P19" s="11"/>
+    </row>
+    <row r="20" spans="2:16" s="11" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+    </row>
+    <row r="21" spans="2:16" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="D21" s="9"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="P21" s="11"/>
+    </row>
+    <row r="22" spans="2:16" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="D22" s="9"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="P22" s="11"/>
+    </row>
+    <row r="23" spans="2:16" s="11" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
+    </row>
+    <row r="24" spans="2:16" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="D24" s="9"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="P24" s="11"/>
+    </row>
+    <row r="25" spans="2:16" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="D25" s="9"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="P25" s="11"/>
+    </row>
+    <row r="26" spans="2:16" s="11" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D21" s="3">
-        <v>1</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D22" s="3">
-        <v>2</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B24" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="9">
-        <v>1</v>
-      </c>
-      <c r="E25" s="11" t="s">
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+    </row>
+    <row r="27" spans="2:16" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="D27" s="9"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="P27" s="11"/>
+    </row>
+    <row r="28" spans="2:16" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="D28" s="9"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="P28" s="11"/>
+    </row>
+    <row r="29" spans="2:16" s="11" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="F25" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="G25" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="H25" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="I25" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="M25" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3">
-        <v>3</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D27" s="3">
-        <v>4</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="M27" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="P27" s="11"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D29" s="9"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="P29" s="11"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="12"/>
+      <c r="P29" s="12"/>
+    </row>
+    <row r="30" spans="2:16" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="D30" s="9"/>
       <c r="E30" s="11"/>
       <c r="F30" s="11"/>
@@ -1259,321 +1299,304 @@
       <c r="I30" s="11"/>
       <c r="P30" s="11"/>
     </row>
-    <row r="31" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="12"/>
-      <c r="M31" s="12"/>
-      <c r="N31" s="12"/>
-      <c r="O31" s="12"/>
-      <c r="P31" s="12"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B32" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D33" s="3">
-        <v>1</v>
-      </c>
-      <c r="E33" s="3" t="s">
+    <row r="31" spans="2:16" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="D31" s="9"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="P31" s="11"/>
+    </row>
+    <row r="32" spans="2:16" s="11" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="12"/>
+      <c r="O32" s="12"/>
+      <c r="P32" s="12"/>
+    </row>
+    <row r="33" spans="2:16" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="D33" s="9"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="P33" s="11"/>
+    </row>
+    <row r="34" spans="2:16" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="D34" s="9"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="P34" s="11"/>
+    </row>
+    <row r="35" spans="2:16" s="11" customFormat="1" collapsed="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="12"/>
+      <c r="N35" s="12"/>
+      <c r="O35" s="12"/>
+      <c r="P35" s="12"/>
+    </row>
+    <row r="36" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F33" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
-      <c r="I33" s="3" t="s">
+      <c r="D36" s="9"/>
+      <c r="F36" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="M33" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D34" s="3">
-        <v>2</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="M34" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D36" s="9"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
       <c r="G36" s="11"/>
       <c r="H36" s="11"/>
       <c r="I36" s="11"/>
-      <c r="P36" s="11"/>
-    </row>
-    <row r="37" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="12" t="s">
+      <c r="L36" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="P36" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="D37" s="9">
+        <v>1</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="G37" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="H37" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="I37" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="L37" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="M37" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="P37" s="11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="D38" s="9">
+        <v>2</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="G38" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="H38" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="I38" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="L38" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="M38" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="P38" s="11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="D39" s="9"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="P39" s="11"/>
+    </row>
+    <row r="40" spans="2:16" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="12"/>
+      <c r="M40" s="12"/>
+      <c r="N40" s="12"/>
+      <c r="O40" s="12"/>
+      <c r="P40" s="12"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B41" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D41" s="9"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="L41" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="P41" s="11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="D42" s="9">
+        <v>1</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F42" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="G42" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="H42" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="I42" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="L42" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="P42" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="D43" s="9">
+        <v>2</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="G43" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="H43" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="I43" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="L43" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="P43" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="D44" s="9"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+      <c r="P44" s="11"/>
+    </row>
+    <row r="45" spans="2:16" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C37" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="12"/>
-      <c r="L37" s="12"/>
-      <c r="M37" s="12"/>
-      <c r="N37" s="12"/>
-      <c r="O37" s="12"/>
-      <c r="P37" s="12"/>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B38" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D38" s="9"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11"/>
-      <c r="L38" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="P38" s="11"/>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D39" s="9">
-        <v>1</v>
-      </c>
-      <c r="E39" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F39" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="G39" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="H39" s="11" t="s">
+      <c r="C45" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="I39" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="L39" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="M39" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="P39" s="11"/>
-    </row>
-    <row r="40" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="D40" s="9">
-        <v>2</v>
-      </c>
-      <c r="E40" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="F40" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="G40" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="H40" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="I40" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="L40" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="M40" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="P40" s="15" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D41" s="9">
-        <v>3</v>
-      </c>
-      <c r="E41" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="F41" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="G41" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="H41" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="I41" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="M41" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="P41" s="11"/>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D42" s="9">
-        <v>4</v>
-      </c>
-      <c r="E42" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="F42" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="G42" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="H42" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="I42" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="L42" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="M42" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="P42" s="11"/>
-    </row>
-    <row r="43" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="D43" s="9">
-        <v>5</v>
-      </c>
-      <c r="E43" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="F43" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="G43" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="H43" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="I43" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="L43" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="M43" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="P43" s="15" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="9">
-        <v>6</v>
-      </c>
-      <c r="E44" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="J44" s="3"/>
-      <c r="K44" s="3"/>
-      <c r="L44" s="3"/>
-      <c r="M44" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="N44" s="3"/>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="9"/>
-      <c r="J45" s="3"/>
-      <c r="K45" s="3"/>
-      <c r="L45" s="3"/>
-      <c r="M45" s="3"/>
-      <c r="N45" s="3"/>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A46" s="11"/>
-      <c r="B46" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C46" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="12"/>
-      <c r="I46" s="12"/>
-      <c r="J46" s="12"/>
-      <c r="K46" s="12"/>
-      <c r="L46" s="12"/>
-      <c r="M46" s="12"/>
-      <c r="N46" s="12"/>
-      <c r="O46" s="12"/>
-      <c r="P46" s="12"/>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="12"/>
+      <c r="K45" s="12"/>
+      <c r="L45" s="12"/>
+      <c r="M45" s="12"/>
+      <c r="N45" s="12"/>
+      <c r="O45" s="12"/>
+      <c r="P45" s="12"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="D46" s="9"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="P46" s="11"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.35">
       <c r="D47" s="9"/>
       <c r="E47" s="11"/>
       <c r="F47" s="11"/>
@@ -1582,41 +1605,37 @@
       <c r="I47" s="11"/>
       <c r="P47" s="11"/>
     </row>
-    <row r="48" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="9"/>
-      <c r="J48" s="3"/>
-      <c r="K48" s="3"/>
-      <c r="L48" s="3"/>
-      <c r="M48" s="3"/>
-      <c r="N48" s="3"/>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A49" s="11"/>
-      <c r="B49" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C49" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="12"/>
-      <c r="G49" s="12"/>
-      <c r="H49" s="12"/>
-      <c r="I49" s="12"/>
-      <c r="J49" s="12"/>
-      <c r="K49" s="12"/>
-      <c r="L49" s="12"/>
-      <c r="M49" s="12"/>
-      <c r="N49" s="12"/>
-      <c r="O49" s="12"/>
-      <c r="P49" s="12"/>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:16" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="12"/>
+      <c r="J48" s="12"/>
+      <c r="K48" s="12"/>
+      <c r="L48" s="12"/>
+      <c r="M48" s="12"/>
+      <c r="N48" s="12"/>
+      <c r="O48" s="12"/>
+      <c r="P48" s="12"/>
+    </row>
+    <row r="49" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="D49" s="9"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
+      <c r="P49" s="11"/>
+    </row>
+    <row r="50" spans="2:16" x14ac:dyDescent="0.35">
       <c r="D50" s="9"/>
       <c r="E50" s="11"/>
       <c r="F50" s="11"/>
@@ -1625,36 +1644,67 @@
       <c r="I50" s="11"/>
       <c r="P50" s="11"/>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D51" s="9"/>
-      <c r="E51" s="11"/>
-      <c r="F51" s="11"/>
-      <c r="G51" s="11"/>
-      <c r="H51" s="11"/>
-      <c r="I51" s="11"/>
+    <row r="51" spans="2:16" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B51" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="12"/>
+      <c r="J51" s="12"/>
+      <c r="K51" s="12"/>
+      <c r="L51" s="12"/>
+      <c r="M51" s="12"/>
+      <c r="N51" s="12"/>
+      <c r="O51" s="12"/>
+      <c r="P51" s="12"/>
+    </row>
+    <row r="52" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="D52" s="9"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
+      <c r="P52" s="11"/>
+    </row>
+    <row r="53" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="D53" s="9"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11"/>
+      <c r="P53" s="11"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatRows="0" insertRows="0" insertHyperlinks="0" deleteRows="0" sort="0" autoFilter="0"/>
-  <autoFilter ref="B10:P50" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="B10:P53" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="1">
     <mergeCell ref="F1:P6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C63:C902" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C65:C904" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"VARIABLE,ARRAY,RECORD"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M12:O13 M15:O18 M47:O48 M50:O51 M38:O45 N25:O27 M29:O30 M36:O36" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M12:O13 M15:O16 M18:O19 M21:O22 M27:O28 M30:O31 M33:O34 M46:O47 M49:O50 M52:O53 M24:O25 M36:O39 M41:O44" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"rx,tx"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Object Code value" error="The Object code value shall be:_x000a_VARIABLE_x000a_RECORD_x000a_ARRAY" sqref="C12:C13 C15:C18 C47:C48 C50:C62 C38:C45 C25:C27 C29:C30 C36" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Object Code value" error="The Object code value shall be:_x000a_VARIABLE_x000a_RECORD_x000a_ARRAY" sqref="C12:C13 C15:C16 C18:C19 C21:C22 C27:C28 C30:C31 C33:C34 C46:C47 C49:C50 C52:C64 C24:C25 C36:C39 C41:C44" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"VARIABLE,ARRAY,RECORD"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" sqref="C11 C14 C49 C31 C46 C19 C37" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Category" error="The value for the entry category shall be _x000a_M : (mandatory)_x000a_O : (optional) _x000a_C : (conditional)" sqref="J12:J13 J15:J18 J47:J48 J50:J62 J38:J45 J25 J29:J30 J36" xr:uid="{00000000-0002-0000-0000-000004000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" sqref="C11 C14 C17 C20 C23 C26 C29 C32 C51 C40 C45 C48 C35" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Category" error="The value for the entry category shall be _x000a_M : (mandatory)_x000a_O : (optional) _x000a_C : (conditional)" sqref="J12:J13 J15:J16 J18:J19 J21:J22 J27:J28 J30:J31 J33:J34 J46:J47 J49:J50 J52:J64 J24:J25 J36:J39 J41:J44" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>"M,O,C"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Backup/Setting Flag" error="The entry flag shall be_x000a_B : (Backup)_x000a_S : (Setting)" sqref="K12:K13 K15:K18 K47:K48 K50:K62 K38:K45 K25 K29:K30 K36" xr:uid="{00000000-0002-0000-0000-000005000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Backup/Setting Flag" error="The entry flag shall be_x000a_B : (Backup)_x000a_S : (Setting)" sqref="K12:K13 K15:K16 K18:K19 K21:K22 K27:K28 K30:K31 K33:K34 K46:K47 K49:K50 K52:K64 K24:K25 K36:K39 K41:K44" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>"B,S"</formula1>
     </dataValidation>
   </dataValidations>
